--- a/Taimen_Movements_Eg_Selenge.xlsx
+++ b/Taimen_Movements_Eg_Selenge.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhart\Documents\ArcGIS\Projects\Eg_Selenge Movement Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Mongolia Program\5. Projects\Science\Eg-Uur Movement Data\MovementData_ExploratoryAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FF4382-35C7-4CC0-947C-F76729F9023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37FB49-4946-4343-A79A-E438EA8EAA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,21 +28,6 @@
     <t>Species</t>
   </si>
   <si>
-    <t>Lat_Adjusted</t>
-  </si>
-  <si>
-    <t>Long_Adjusted</t>
-  </si>
-  <si>
-    <t>Code_Species</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
     <t>Taimen</t>
   </si>
   <si>
@@ -484,7 +469,22 @@
     <t>158B</t>
   </si>
   <si>
-    <t>Acquisition_Unique_ID</t>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>ID_Species</t>
+  </si>
+  <si>
+    <t>Survey Number</t>
+  </si>
+  <si>
+    <t>Acquisition Unique ID</t>
+  </si>
+  <si>
+    <t>Fish ID</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +506,12 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -522,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -539,6 +545,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -548,10 +569,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,46 +878,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="16.3671875" customWidth="1"/>
-    <col min="5" max="5" width="13.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.3125" customWidth="1"/>
-    <col min="7" max="7" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3671875" customWidth="1"/>
+    <col min="2" max="2" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.62890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.41796875" customWidth="1"/>
+    <col min="6" max="6" width="13.1015625" customWidth="1"/>
+    <col min="7" max="7" width="21.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.05078125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+      <c r="F1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>41920</v>
       </c>
       <c r="B2">
@@ -905,24 +930,24 @@
       <c r="C2">
         <v>103.63988381999999</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>41988</v>
       </c>
       <c r="B3">
@@ -931,24 +956,24 @@
       <c r="C3">
         <v>103.63572832</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3">
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>42061</v>
       </c>
       <c r="B4">
@@ -957,24 +982,24 @@
       <c r="C4">
         <v>103.63907662</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="D4">
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>42115</v>
       </c>
       <c r="B5">
@@ -983,24 +1008,24 @@
       <c r="C5">
         <v>103.63746345</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
+      <c r="D5">
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>42119</v>
       </c>
       <c r="B6">
@@ -1009,24 +1034,24 @@
       <c r="C6">
         <v>103.63468102</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
         <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>102</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>42121</v>
       </c>
       <c r="B7">
@@ -1035,24 +1060,24 @@
       <c r="C7">
         <v>103.63610648</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
+      <c r="D7">
+        <v>102</v>
       </c>
       <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>8</v>
-      </c>
-      <c r="F7">
-        <v>102</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>42124</v>
       </c>
       <c r="B8">
@@ -1061,24 +1086,24 @@
       <c r="C8">
         <v>103.63373593</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
+      <c r="D8">
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>42127</v>
       </c>
       <c r="B9">
@@ -1087,24 +1112,24 @@
       <c r="C9">
         <v>103.63671116</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
+      <c r="D9">
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>42133</v>
       </c>
       <c r="B10">
@@ -1113,24 +1138,24 @@
       <c r="C10">
         <v>103.63595445999999</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
+      <c r="D10">
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>42190</v>
       </c>
       <c r="B11">
@@ -1139,24 +1164,24 @@
       <c r="C11">
         <v>101.95380689</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
+      <c r="D11">
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>41997</v>
       </c>
       <c r="B12">
@@ -1165,24 +1190,24 @@
       <c r="C12">
         <v>103.48580574</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
+      <c r="D12">
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12">
-        <v>104</v>
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>42123</v>
       </c>
       <c r="B13">
@@ -1191,24 +1216,24 @@
       <c r="C13">
         <v>103.34119010000001</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
+      <c r="D13">
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13">
-        <v>104</v>
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>42166</v>
       </c>
       <c r="B14">
@@ -1217,24 +1242,24 @@
       <c r="C14">
         <v>102.98598281</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
+      <c r="D14">
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14">
-        <v>104</v>
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>42190</v>
       </c>
       <c r="B15">
@@ -1243,24 +1268,24 @@
       <c r="C15">
         <v>101.94883411000001</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
+      <c r="D15">
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15">
-        <v>104</v>
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>42541</v>
       </c>
       <c r="B16">
@@ -1269,24 +1294,24 @@
       <c r="C16">
         <v>102.98559725</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
+      <c r="D16">
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>104</v>
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>42166</v>
       </c>
       <c r="B17">
@@ -1295,24 +1320,24 @@
       <c r="C17">
         <v>103.05411254000001</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
+      <c r="D17">
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>42191</v>
       </c>
       <c r="B18">
@@ -1321,24 +1346,24 @@
       <c r="C18">
         <v>102.3897994</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
+      <c r="D18">
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>42539</v>
       </c>
       <c r="B19">
@@ -1347,24 +1372,24 @@
       <c r="C19">
         <v>101.99232467</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
+      <c r="D19">
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>41802</v>
       </c>
       <c r="B20">
@@ -1373,24 +1398,24 @@
       <c r="C20">
         <v>103.18376449</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
+      <c r="D20">
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20">
-        <v>120</v>
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>42123</v>
       </c>
       <c r="B21">
@@ -1399,24 +1424,24 @@
       <c r="C21">
         <v>103.31739792</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
+      <c r="D21">
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21">
-        <v>120</v>
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>42169</v>
       </c>
       <c r="B22">
@@ -1425,24 +1450,24 @@
       <c r="C22">
         <v>103.18214630999999</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
+      <c r="D22">
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22">
-        <v>120</v>
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>42221</v>
       </c>
       <c r="B23">
@@ -1451,24 +1476,24 @@
       <c r="C23">
         <v>103.105946</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
+      <c r="D23">
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23">
-        <v>120</v>
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>41914</v>
       </c>
       <c r="B24">
@@ -1477,24 +1502,24 @@
       <c r="C24">
         <v>103.31182074</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
+      <c r="D24">
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>41996</v>
       </c>
       <c r="B25">
@@ -1503,24 +1528,24 @@
       <c r="C25">
         <v>103.30892073</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
+      <c r="D25">
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>42060</v>
       </c>
       <c r="B26">
@@ -1529,24 +1554,24 @@
       <c r="C26">
         <v>103.29703719</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
+      <c r="D26">
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H26">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>42190</v>
       </c>
       <c r="B27">
@@ -1555,24 +1580,24 @@
       <c r="C27">
         <v>102.03937848</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
+      <c r="D27">
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H27">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>41915</v>
       </c>
       <c r="B28">
@@ -1581,24 +1606,24 @@
       <c r="C28">
         <v>103.64221453</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
+      <c r="D28">
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>42061</v>
       </c>
       <c r="B29">
@@ -1607,24 +1632,24 @@
       <c r="C29">
         <v>103.55862211</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
+      <c r="D29">
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>42115</v>
       </c>
       <c r="B30">
@@ -1633,24 +1658,24 @@
       <c r="C30">
         <v>103.59423304000001</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
+      <c r="D30">
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>41100</v>
       </c>
       <c r="B31">
@@ -1659,24 +1684,24 @@
       <c r="C31">
         <v>101.94861638</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
+      <c r="D31">
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
         <v>133</v>
-      </c>
-      <c r="G31" t="s">
-        <v>138</v>
       </c>
       <c r="H31">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>42166</v>
       </c>
       <c r="B32">
@@ -1685,24 +1710,24 @@
       <c r="C32">
         <v>103.10356184</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
+      <c r="D32">
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>42221</v>
       </c>
       <c r="B33">
@@ -1711,24 +1736,24 @@
       <c r="C33">
         <v>103.10421405</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
+      <c r="D33">
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>42541</v>
       </c>
       <c r="B34">
@@ -1737,24 +1762,24 @@
       <c r="C34">
         <v>103.10518187</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
+      <c r="D34">
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>41099</v>
       </c>
       <c r="B35">
@@ -1763,24 +1788,24 @@
       <c r="C35">
         <v>101.94109177999999</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
+      <c r="D35">
+        <v>134</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>42169</v>
       </c>
       <c r="B36">
@@ -1789,24 +1814,24 @@
       <c r="C36">
         <v>103.21027804000001</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
+      <c r="D36">
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>42208</v>
       </c>
       <c r="B37">
@@ -1815,24 +1840,24 @@
       <c r="C37">
         <v>103.20992947000001</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
+      <c r="D37">
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>42166</v>
       </c>
       <c r="B38">
@@ -1841,24 +1866,24 @@
       <c r="C38">
         <v>103.10719372</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
+      <c r="D38">
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>42221</v>
       </c>
       <c r="B39">
@@ -1867,24 +1892,24 @@
       <c r="C39">
         <v>103.10738429</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
+      <c r="D39">
+        <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>42541</v>
       </c>
       <c r="B40">
@@ -1893,24 +1918,24 @@
       <c r="C40">
         <v>103.10739347000001</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
+      <c r="D40">
+        <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>41917</v>
       </c>
       <c r="B41">
@@ -1919,24 +1944,24 @@
       <c r="C41">
         <v>103.51871853</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
+      <c r="D41">
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>41989</v>
       </c>
       <c r="B42">
@@ -1945,24 +1970,24 @@
       <c r="C42">
         <v>103.50585927</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
+      <c r="D42">
+        <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>42060</v>
       </c>
       <c r="B43">
@@ -1971,24 +1996,24 @@
       <c r="C43">
         <v>103.50559796</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
+      <c r="D43">
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42115</v>
       </c>
       <c r="B44">
@@ -1997,24 +2022,24 @@
       <c r="C44">
         <v>103.50276176</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
+      <c r="D44">
+        <v>151</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>42123</v>
       </c>
       <c r="B45">
@@ -2023,24 +2048,24 @@
       <c r="C45">
         <v>103.50493795</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
+      <c r="D45">
+        <v>151</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H45">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>42132</v>
       </c>
       <c r="B46">
@@ -2049,24 +2074,24 @@
       <c r="C46">
         <v>103.50029268999999</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
+      <c r="D46">
+        <v>151</v>
       </c>
       <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s">
         <v>46</v>
-      </c>
-      <c r="F46">
-        <v>151</v>
-      </c>
-      <c r="G46" t="s">
-        <v>51</v>
       </c>
       <c r="H46">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>42133</v>
       </c>
       <c r="B47">
@@ -2075,24 +2100,24 @@
       <c r="C47">
         <v>103.51171915</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
+      <c r="D47">
+        <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H47">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>42540</v>
       </c>
       <c r="B48">
@@ -2101,24 +2126,24 @@
       <c r="C48">
         <v>102.47876783</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
+      <c r="D48">
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H48">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>41917</v>
       </c>
       <c r="B49">
@@ -2127,24 +2152,24 @@
       <c r="C49">
         <v>103.48401561</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
+      <c r="D49">
+        <v>154</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>42060</v>
       </c>
       <c r="B50">
@@ -2153,24 +2178,24 @@
       <c r="C50">
         <v>103.46062836999999</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
+      <c r="D50">
+        <v>154</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>42115</v>
       </c>
       <c r="B51">
@@ -2179,24 +2204,24 @@
       <c r="C51">
         <v>103.471873</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
+      <c r="D51">
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>48</v>
       </c>
       <c r="G51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>42123</v>
       </c>
       <c r="B52">
@@ -2205,24 +2230,24 @@
       <c r="C52">
         <v>103.46510868999999</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
+      <c r="D52">
+        <v>154</v>
       </c>
       <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" t="s">
         <v>53</v>
-      </c>
-      <c r="F52">
-        <v>154</v>
-      </c>
-      <c r="G52" t="s">
-        <v>58</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>42131</v>
       </c>
       <c r="B53">
@@ -2231,24 +2256,24 @@
       <c r="C53">
         <v>103.46903351</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
+      <c r="D53">
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>48</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H53">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>42131</v>
       </c>
       <c r="B54">
@@ -2257,24 +2282,24 @@
       <c r="C54">
         <v>103.46918359</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
+      <c r="D54">
+        <v>154</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>48</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H54">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>42131</v>
       </c>
       <c r="B55">
@@ -2283,24 +2308,24 @@
       <c r="C55">
         <v>103.44983289</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
+      <c r="D55">
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H55">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>42131</v>
       </c>
       <c r="B56">
@@ -2309,24 +2334,24 @@
       <c r="C56">
         <v>103.44988772000001</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
+      <c r="D56">
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>48</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H56">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>42131</v>
       </c>
       <c r="B57">
@@ -2335,24 +2360,24 @@
       <c r="C57">
         <v>103.46897781</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
+      <c r="D57">
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
-      </c>
-      <c r="F57">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>48</v>
       </c>
       <c r="G57" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H57">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>42131</v>
       </c>
       <c r="B58">
@@ -2361,24 +2386,24 @@
       <c r="C58">
         <v>103.46903351</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
+      <c r="D58">
+        <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F58">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H58">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>42131</v>
       </c>
       <c r="B59">
@@ -2387,24 +2412,24 @@
       <c r="C59">
         <v>103.46924303999999</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
+      <c r="D59">
+        <v>154</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F59">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>48</v>
       </c>
       <c r="G59" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H59">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>42131</v>
       </c>
       <c r="B60">
@@ -2413,24 +2438,24 @@
       <c r="C60">
         <v>103.46897781</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
+      <c r="D60">
+        <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F60">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>48</v>
       </c>
       <c r="G60" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H60">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>42131</v>
       </c>
       <c r="B61">
@@ -2439,24 +2464,24 @@
       <c r="C61">
         <v>103.46897781</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
+      <c r="D61">
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>48</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H61">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>42131</v>
       </c>
       <c r="B62">
@@ -2465,24 +2490,24 @@
       <c r="C62">
         <v>103.46890209</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
+      <c r="D62">
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
-      </c>
-      <c r="F62">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>48</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H62">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>42132</v>
       </c>
       <c r="B63">
@@ -2491,24 +2516,24 @@
       <c r="C63">
         <v>103.47513554</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
+      <c r="D63">
+        <v>154</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
-      </c>
-      <c r="F63">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>48</v>
       </c>
       <c r="G63" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H63">
         <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>42133</v>
       </c>
       <c r="B64">
@@ -2517,24 +2542,24 @@
       <c r="C64">
         <v>103.48397683</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
+      <c r="D64">
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F64">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>48</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H64">
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>42134</v>
       </c>
       <c r="B65">
@@ -2543,24 +2568,24 @@
       <c r="C65">
         <v>103.47577187</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
+      <c r="D65">
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
-      </c>
-      <c r="F65">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H65">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>42170</v>
       </c>
       <c r="B66">
@@ -2569,24 +2594,24 @@
       <c r="C66">
         <v>103.32997829</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
+      <c r="D66">
+        <v>154</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
-      </c>
-      <c r="F66">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H66">
         <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>42192</v>
       </c>
       <c r="B67">
@@ -2595,24 +2620,24 @@
       <c r="C67">
         <v>102.39245811000001</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
+      <c r="D67">
+        <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
-      </c>
-      <c r="F67">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>48</v>
       </c>
       <c r="G67" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H67">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>42543</v>
       </c>
       <c r="B68">
@@ -2621,24 +2646,24 @@
       <c r="C68">
         <v>104.13441808</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
+      <c r="D68">
+        <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
-      </c>
-      <c r="F68">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>48</v>
       </c>
       <c r="G68" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H68">
         <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>41831</v>
       </c>
       <c r="B69">
@@ -2647,24 +2672,24 @@
       <c r="C69">
         <v>103.48571764</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
+      <c r="D69">
+        <v>155</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
-      </c>
-      <c r="F69">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>68</v>
       </c>
       <c r="G69" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>41842</v>
       </c>
       <c r="B70">
@@ -2673,24 +2698,24 @@
       <c r="C70">
         <v>103.50458739</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
+      <c r="D70">
+        <v>155</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
-      </c>
-      <c r="F70">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>68</v>
       </c>
       <c r="G70" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>41851</v>
       </c>
       <c r="B71">
@@ -2699,24 +2724,24 @@
       <c r="C71">
         <v>103.48678556</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
+      <c r="D71">
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>73</v>
-      </c>
-      <c r="F71">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>68</v>
       </c>
       <c r="G71" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H71">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>41852</v>
       </c>
       <c r="B72">
@@ -2725,24 +2750,24 @@
       <c r="C72">
         <v>103.48578709</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
+      <c r="D72">
+        <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>73</v>
-      </c>
-      <c r="F72">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H72">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>42060</v>
       </c>
       <c r="B73">
@@ -2751,24 +2776,24 @@
       <c r="C73">
         <v>103.51090786</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
+      <c r="D73">
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F73">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>68</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H73">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>42115</v>
       </c>
       <c r="B74">
@@ -2777,24 +2802,24 @@
       <c r="C74">
         <v>103.51073916</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
+      <c r="D74">
+        <v>155</v>
       </c>
       <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>68</v>
+      </c>
+      <c r="G74" t="s">
         <v>73</v>
-      </c>
-      <c r="F74">
-        <v>155</v>
-      </c>
-      <c r="G74" t="s">
-        <v>78</v>
       </c>
       <c r="H74">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>42123</v>
       </c>
       <c r="B75">
@@ -2803,24 +2828,24 @@
       <c r="C75">
         <v>103.51046132</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
+      <c r="D75">
+        <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
-      </c>
-      <c r="F75">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>68</v>
       </c>
       <c r="G75" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H75">
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>42132</v>
       </c>
       <c r="B76">
@@ -2829,24 +2854,24 @@
       <c r="C76">
         <v>103.51217423999999</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
+      <c r="D76">
+        <v>155</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
-      </c>
-      <c r="F76">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>68</v>
       </c>
       <c r="G76" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H76">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>42133</v>
       </c>
       <c r="B77">
@@ -2855,24 +2880,24 @@
       <c r="C77">
         <v>103.50638825</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
+      <c r="D77">
+        <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>68</v>
       </c>
       <c r="G77" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H77">
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>42134</v>
       </c>
       <c r="B78">
@@ -2881,24 +2906,24 @@
       <c r="C78">
         <v>103.51055904</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
+      <c r="D78">
+        <v>155</v>
       </c>
       <c r="E78" t="s">
-        <v>73</v>
-      </c>
-      <c r="F78">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>68</v>
       </c>
       <c r="G78" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H78">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>42170</v>
       </c>
       <c r="B79">
@@ -2907,24 +2932,24 @@
       <c r="C79">
         <v>103.51007498</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
+      <c r="D79">
+        <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>73</v>
-      </c>
-      <c r="F79">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>68</v>
       </c>
       <c r="G79" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H79">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>42209</v>
       </c>
       <c r="B80">
@@ -2933,24 +2958,24 @@
       <c r="C80">
         <v>103.51038798</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
+      <c r="D80">
+        <v>155</v>
       </c>
       <c r="E80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F80">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>68</v>
       </c>
       <c r="G80" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H80">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>42222</v>
       </c>
       <c r="B81">
@@ -2959,24 +2984,24 @@
       <c r="C81">
         <v>103.51115824</v>
       </c>
-      <c r="D81" t="s">
-        <v>7</v>
+      <c r="D81">
+        <v>155</v>
       </c>
       <c r="E81" t="s">
-        <v>73</v>
-      </c>
-      <c r="F81">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>68</v>
       </c>
       <c r="G81" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H81">
         <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>42542</v>
       </c>
       <c r="B82">
@@ -2985,24 +3010,24 @@
       <c r="C82">
         <v>103.51847153999999</v>
       </c>
-      <c r="D82" t="s">
-        <v>7</v>
+      <c r="D82">
+        <v>155</v>
       </c>
       <c r="E82" t="s">
-        <v>73</v>
-      </c>
-      <c r="F82">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>68</v>
       </c>
       <c r="G82" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H82">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>41920</v>
       </c>
       <c r="B83">
@@ -3011,24 +3036,24 @@
       <c r="C83">
         <v>103.60061564</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
+      <c r="D83">
+        <v>156</v>
       </c>
       <c r="E83" t="s">
-        <v>84</v>
-      </c>
-      <c r="F83">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>79</v>
       </c>
       <c r="G83" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>41920</v>
       </c>
       <c r="B84">
@@ -3037,24 +3062,24 @@
       <c r="C84">
         <v>103.56024410000001</v>
       </c>
-      <c r="D84" t="s">
-        <v>7</v>
+      <c r="D84">
+        <v>156</v>
       </c>
       <c r="E84" t="s">
-        <v>84</v>
-      </c>
-      <c r="F84">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>79</v>
       </c>
       <c r="G84" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>41989</v>
       </c>
       <c r="B85">
@@ -3063,24 +3088,24 @@
       <c r="C85">
         <v>103.55066209</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
+      <c r="D85">
+        <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>84</v>
-      </c>
-      <c r="F85">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>79</v>
       </c>
       <c r="G85" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>42060</v>
       </c>
       <c r="B86">
@@ -3089,24 +3114,24 @@
       <c r="C86">
         <v>103.54751125999999</v>
       </c>
-      <c r="D86" t="s">
-        <v>7</v>
+      <c r="D86">
+        <v>156</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
-      </c>
-      <c r="F86">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>79</v>
       </c>
       <c r="G86" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H86">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>42115</v>
       </c>
       <c r="B87">
@@ -3115,24 +3140,24 @@
       <c r="C87">
         <v>103.54559257</v>
       </c>
-      <c r="D87" t="s">
-        <v>7</v>
+      <c r="D87">
+        <v>156</v>
       </c>
       <c r="E87" t="s">
-        <v>84</v>
-      </c>
-      <c r="F87">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>79</v>
       </c>
       <c r="G87" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H87">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>42123</v>
       </c>
       <c r="B88">
@@ -3141,24 +3166,24 @@
       <c r="C88">
         <v>103.54738669</v>
       </c>
-      <c r="D88" t="s">
-        <v>7</v>
+      <c r="D88">
+        <v>156</v>
       </c>
       <c r="E88" t="s">
-        <v>84</v>
-      </c>
-      <c r="F88">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>79</v>
       </c>
       <c r="G88" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H88">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>42132</v>
       </c>
       <c r="B89">
@@ -3167,24 +3192,24 @@
       <c r="C89">
         <v>103.54535171000001</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
+      <c r="D89">
+        <v>156</v>
       </c>
       <c r="E89" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s">
         <v>84</v>
-      </c>
-      <c r="F89">
-        <v>156</v>
-      </c>
-      <c r="G89" t="s">
-        <v>89</v>
       </c>
       <c r="H89">
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>42190</v>
       </c>
       <c r="B90">
@@ -3193,24 +3218,24 @@
       <c r="C90">
         <v>102.07410985999999</v>
       </c>
-      <c r="D90" t="s">
-        <v>7</v>
+      <c r="D90">
+        <v>156</v>
       </c>
       <c r="E90" t="s">
-        <v>84</v>
-      </c>
-      <c r="F90">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>79</v>
       </c>
       <c r="G90" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H90">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>41913</v>
       </c>
       <c r="B91">
@@ -3219,24 +3244,24 @@
       <c r="C91">
         <v>103.48386527</v>
       </c>
-      <c r="D91" t="s">
-        <v>7</v>
+      <c r="D91">
+        <v>157</v>
       </c>
       <c r="E91" t="s">
-        <v>90</v>
-      </c>
-      <c r="F91">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>85</v>
       </c>
       <c r="G91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>41989</v>
       </c>
       <c r="B92">
@@ -3245,24 +3270,24 @@
       <c r="C92">
         <v>103.48898591</v>
       </c>
-      <c r="D92" t="s">
-        <v>7</v>
+      <c r="D92">
+        <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>90</v>
-      </c>
-      <c r="F92">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>85</v>
       </c>
       <c r="G92" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>41992</v>
       </c>
       <c r="B93">
@@ -3271,24 +3296,24 @@
       <c r="C93">
         <v>103.48660131</v>
       </c>
-      <c r="D93" t="s">
-        <v>7</v>
+      <c r="D93">
+        <v>157</v>
       </c>
       <c r="E93" t="s">
-        <v>90</v>
-      </c>
-      <c r="F93">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>85</v>
       </c>
       <c r="G93" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>42060</v>
       </c>
       <c r="B94">
@@ -3297,24 +3322,24 @@
       <c r="C94">
         <v>103.48250956</v>
       </c>
-      <c r="D94" t="s">
-        <v>7</v>
+      <c r="D94">
+        <v>157</v>
       </c>
       <c r="E94" t="s">
-        <v>90</v>
-      </c>
-      <c r="F94">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>85</v>
       </c>
       <c r="G94" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H94">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>42115</v>
       </c>
       <c r="B95">
@@ -3323,24 +3348,24 @@
       <c r="C95">
         <v>103.48867506000001</v>
       </c>
-      <c r="D95" t="s">
-        <v>7</v>
+      <c r="D95">
+        <v>157</v>
       </c>
       <c r="E95" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>85</v>
+      </c>
+      <c r="G95" t="s">
         <v>90</v>
-      </c>
-      <c r="F95">
-        <v>157</v>
-      </c>
-      <c r="G95" t="s">
-        <v>95</v>
       </c>
       <c r="H95">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>42123</v>
       </c>
       <c r="B96">
@@ -3349,24 +3374,24 @@
       <c r="C96">
         <v>103.48510269000001</v>
       </c>
-      <c r="D96" t="s">
-        <v>7</v>
+      <c r="D96">
+        <v>157</v>
       </c>
       <c r="E96" t="s">
-        <v>90</v>
-      </c>
-      <c r="F96">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>85</v>
       </c>
       <c r="G96" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H96">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>42131</v>
       </c>
       <c r="B97">
@@ -3375,24 +3400,24 @@
       <c r="C97">
         <v>103.46234332</v>
       </c>
-      <c r="D97" t="s">
-        <v>7</v>
+      <c r="D97">
+        <v>157</v>
       </c>
       <c r="E97" t="s">
-        <v>90</v>
-      </c>
-      <c r="F97">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>85</v>
       </c>
       <c r="G97" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H97">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>42131</v>
       </c>
       <c r="B98">
@@ -3401,24 +3426,24 @@
       <c r="C98">
         <v>103.46226124</v>
       </c>
-      <c r="D98" t="s">
-        <v>7</v>
+      <c r="D98">
+        <v>157</v>
       </c>
       <c r="E98" t="s">
-        <v>90</v>
-      </c>
-      <c r="F98">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>85</v>
       </c>
       <c r="G98" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H98">
         <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>42131</v>
       </c>
       <c r="B99">
@@ -3427,24 +3452,24 @@
       <c r="C99">
         <v>103.46220129</v>
       </c>
-      <c r="D99" t="s">
-        <v>7</v>
+      <c r="D99">
+        <v>157</v>
       </c>
       <c r="E99" t="s">
-        <v>90</v>
-      </c>
-      <c r="F99">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>85</v>
       </c>
       <c r="G99" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H99">
         <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>42131</v>
       </c>
       <c r="B100">
@@ -3453,24 +3478,24 @@
       <c r="C100">
         <v>103.46171366</v>
       </c>
-      <c r="D100" t="s">
-        <v>7</v>
+      <c r="D100">
+        <v>157</v>
       </c>
       <c r="E100" t="s">
-        <v>90</v>
-      </c>
-      <c r="F100">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>85</v>
       </c>
       <c r="G100" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H100">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>42131</v>
       </c>
       <c r="B101">
@@ -3479,24 +3504,24 @@
       <c r="C101">
         <v>103.4620328</v>
       </c>
-      <c r="D101" t="s">
-        <v>7</v>
+      <c r="D101">
+        <v>157</v>
       </c>
       <c r="E101" t="s">
-        <v>90</v>
-      </c>
-      <c r="F101">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>85</v>
       </c>
       <c r="G101" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H101">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>42131</v>
       </c>
       <c r="B102">
@@ -3505,24 +3530,24 @@
       <c r="C102">
         <v>103.46205186</v>
       </c>
-      <c r="D102" t="s">
-        <v>7</v>
+      <c r="D102">
+        <v>157</v>
       </c>
       <c r="E102" t="s">
-        <v>90</v>
-      </c>
-      <c r="F102">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>85</v>
       </c>
       <c r="G102" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H102">
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>42131</v>
       </c>
       <c r="B103">
@@ -3531,24 +3556,24 @@
       <c r="C103">
         <v>103.46192864</v>
       </c>
-      <c r="D103" t="s">
-        <v>7</v>
+      <c r="D103">
+        <v>157</v>
       </c>
       <c r="E103" t="s">
-        <v>90</v>
-      </c>
-      <c r="F103">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>85</v>
       </c>
       <c r="G103" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H103">
         <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>42131</v>
       </c>
       <c r="B104">
@@ -3557,24 +3582,24 @@
       <c r="C104">
         <v>103.46194801999999</v>
       </c>
-      <c r="D104" t="s">
-        <v>7</v>
+      <c r="D104">
+        <v>157</v>
       </c>
       <c r="E104" t="s">
-        <v>90</v>
-      </c>
-      <c r="F104">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>85</v>
       </c>
       <c r="G104" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H104">
         <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>42131</v>
       </c>
       <c r="B105">
@@ -3583,24 +3608,24 @@
       <c r="C105">
         <v>103.46196886</v>
       </c>
-      <c r="D105" t="s">
-        <v>7</v>
+      <c r="D105">
+        <v>157</v>
       </c>
       <c r="E105" t="s">
-        <v>90</v>
-      </c>
-      <c r="F105">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>85</v>
       </c>
       <c r="G105" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H105">
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>42132</v>
       </c>
       <c r="B106">
@@ -3609,24 +3634,24 @@
       <c r="C106">
         <v>103.46153791</v>
       </c>
-      <c r="D106" t="s">
-        <v>7</v>
+      <c r="D106">
+        <v>157</v>
       </c>
       <c r="E106" t="s">
-        <v>90</v>
-      </c>
-      <c r="F106">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>85</v>
       </c>
       <c r="G106" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H106">
         <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>42133</v>
       </c>
       <c r="B107">
@@ -3635,24 +3660,24 @@
       <c r="C107">
         <v>103.46169868</v>
       </c>
-      <c r="D107" t="s">
-        <v>7</v>
+      <c r="D107">
+        <v>157</v>
       </c>
       <c r="E107" t="s">
-        <v>90</v>
-      </c>
-      <c r="F107">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>85</v>
       </c>
       <c r="G107" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H107">
         <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>42134</v>
       </c>
       <c r="B108">
@@ -3661,24 +3686,24 @@
       <c r="C108">
         <v>103.46096927000001</v>
       </c>
-      <c r="D108" t="s">
-        <v>7</v>
+      <c r="D108">
+        <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>90</v>
-      </c>
-      <c r="F108">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>85</v>
       </c>
       <c r="G108" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H108">
         <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>42170</v>
       </c>
       <c r="B109">
@@ -3687,24 +3712,24 @@
       <c r="C109">
         <v>103.48475897</v>
       </c>
-      <c r="D109" t="s">
-        <v>7</v>
+      <c r="D109">
+        <v>157</v>
       </c>
       <c r="E109" t="s">
-        <v>90</v>
-      </c>
-      <c r="F109">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>85</v>
       </c>
       <c r="G109" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H109">
         <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>42208</v>
       </c>
       <c r="B110">
@@ -3713,24 +3738,24 @@
       <c r="C110">
         <v>103.33349629999999</v>
       </c>
-      <c r="D110" t="s">
-        <v>7</v>
+      <c r="D110">
+        <v>157</v>
       </c>
       <c r="E110" t="s">
-        <v>90</v>
-      </c>
-      <c r="F110">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>85</v>
       </c>
       <c r="G110" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H110">
         <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>42222</v>
       </c>
       <c r="B111">
@@ -3739,24 +3764,24 @@
       <c r="C111">
         <v>103.33815740999999</v>
       </c>
-      <c r="D111" t="s">
-        <v>7</v>
+      <c r="D111">
+        <v>157</v>
       </c>
       <c r="E111" t="s">
-        <v>90</v>
-      </c>
-      <c r="F111">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>85</v>
       </c>
       <c r="G111" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H111">
         <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>42542</v>
       </c>
       <c r="B112">
@@ -3765,24 +3790,24 @@
       <c r="C112">
         <v>103.50160034</v>
       </c>
-      <c r="D112" t="s">
-        <v>7</v>
+      <c r="D112">
+        <v>157</v>
       </c>
       <c r="E112" t="s">
-        <v>90</v>
-      </c>
-      <c r="F112">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>85</v>
       </c>
       <c r="G112" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H112">
         <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>41914</v>
       </c>
       <c r="B113">
@@ -3791,24 +3816,24 @@
       <c r="C113">
         <v>103.21797983</v>
       </c>
-      <c r="D113" t="s">
-        <v>7</v>
+      <c r="D113">
+        <v>158</v>
       </c>
       <c r="E113" t="s">
-        <v>110</v>
-      </c>
-      <c r="F113">
-        <v>158</v>
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>105</v>
       </c>
       <c r="G113" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>41994</v>
       </c>
       <c r="B114">
@@ -3817,24 +3842,24 @@
       <c r="C114">
         <v>103.20889757</v>
       </c>
-      <c r="D114" t="s">
-        <v>7</v>
+      <c r="D114">
+        <v>158</v>
       </c>
       <c r="E114" t="s">
-        <v>110</v>
-      </c>
-      <c r="F114">
-        <v>158</v>
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>105</v>
       </c>
       <c r="G114" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H114">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>42060</v>
       </c>
       <c r="B115">
@@ -3843,24 +3868,24 @@
       <c r="C115">
         <v>103.21051039</v>
       </c>
-      <c r="D115" t="s">
-        <v>7</v>
+      <c r="D115">
+        <v>158</v>
       </c>
       <c r="E115" t="s">
-        <v>110</v>
-      </c>
-      <c r="F115">
-        <v>158</v>
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>105</v>
       </c>
       <c r="G115" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H115">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>42123</v>
       </c>
       <c r="B116">
@@ -3869,24 +3894,24 @@
       <c r="C116">
         <v>103.21654522999999</v>
       </c>
-      <c r="D116" t="s">
-        <v>7</v>
+      <c r="D116">
+        <v>158</v>
       </c>
       <c r="E116" t="s">
-        <v>110</v>
-      </c>
-      <c r="F116">
-        <v>158</v>
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>105</v>
       </c>
       <c r="G116" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H116">
         <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>42169</v>
       </c>
       <c r="B117">
@@ -3895,24 +3920,24 @@
       <c r="C117">
         <v>103.21216200000001</v>
       </c>
-      <c r="D117" t="s">
-        <v>7</v>
+      <c r="D117">
+        <v>158</v>
       </c>
       <c r="E117" t="s">
-        <v>110</v>
-      </c>
-      <c r="F117">
-        <v>158</v>
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>105</v>
       </c>
       <c r="G117" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H117">
         <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>42221</v>
       </c>
       <c r="B118">
@@ -3921,24 +3946,24 @@
       <c r="C118">
         <v>103.21016356</v>
       </c>
-      <c r="D118" t="s">
-        <v>7</v>
+      <c r="D118">
+        <v>158</v>
       </c>
       <c r="E118" t="s">
-        <v>110</v>
-      </c>
-      <c r="F118">
-        <v>158</v>
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>105</v>
       </c>
       <c r="G118" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H118">
         <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>41916</v>
       </c>
       <c r="B119">
@@ -3947,24 +3972,24 @@
       <c r="C119">
         <v>103.63566704</v>
       </c>
-      <c r="D119" t="s">
-        <v>7</v>
+      <c r="D119">
+        <v>159</v>
       </c>
       <c r="E119" t="s">
-        <v>115</v>
-      </c>
-      <c r="F119">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>110</v>
       </c>
       <c r="G119" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>41988</v>
       </c>
       <c r="B120">
@@ -3973,24 +3998,24 @@
       <c r="C120">
         <v>103.63414581000001</v>
       </c>
-      <c r="D120" t="s">
-        <v>7</v>
+      <c r="D120">
+        <v>159</v>
       </c>
       <c r="E120" t="s">
-        <v>115</v>
-      </c>
-      <c r="F120">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F120" t="s">
+        <v>110</v>
       </c>
       <c r="G120" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>42061</v>
       </c>
       <c r="B121">
@@ -3999,24 +4024,24 @@
       <c r="C121">
         <v>103.63349799</v>
       </c>
-      <c r="D121" t="s">
-        <v>7</v>
+      <c r="D121">
+        <v>159</v>
       </c>
       <c r="E121" t="s">
-        <v>115</v>
-      </c>
-      <c r="F121">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>110</v>
       </c>
       <c r="G121" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>42115</v>
       </c>
       <c r="B122">
@@ -4025,24 +4050,24 @@
       <c r="C122">
         <v>103.6340707</v>
       </c>
-      <c r="D122" t="s">
-        <v>7</v>
+      <c r="D122">
+        <v>159</v>
       </c>
       <c r="E122" t="s">
-        <v>115</v>
-      </c>
-      <c r="F122">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F122" t="s">
+        <v>110</v>
       </c>
       <c r="G122" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H122">
         <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>42119</v>
       </c>
       <c r="B123">
@@ -4051,24 +4076,24 @@
       <c r="C123">
         <v>103.63623026</v>
       </c>
-      <c r="D123" t="s">
-        <v>7</v>
+      <c r="D123">
+        <v>159</v>
       </c>
       <c r="E123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>110</v>
+      </c>
+      <c r="G123" t="s">
         <v>115</v>
-      </c>
-      <c r="F123">
-        <v>159</v>
-      </c>
-      <c r="G123" t="s">
-        <v>120</v>
       </c>
       <c r="H123">
         <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>42121</v>
       </c>
       <c r="B124">
@@ -4077,24 +4102,24 @@
       <c r="C124">
         <v>103.63571761</v>
       </c>
-      <c r="D124" t="s">
-        <v>7</v>
+      <c r="D124">
+        <v>159</v>
       </c>
       <c r="E124" t="s">
-        <v>115</v>
-      </c>
-      <c r="F124">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F124" t="s">
+        <v>110</v>
       </c>
       <c r="G124" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H124">
         <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>42124</v>
       </c>
       <c r="B125">
@@ -4103,24 +4128,24 @@
       <c r="C125">
         <v>103.63463953</v>
       </c>
-      <c r="D125" t="s">
-        <v>7</v>
+      <c r="D125">
+        <v>159</v>
       </c>
       <c r="E125" t="s">
-        <v>115</v>
-      </c>
-      <c r="F125">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
+        <v>110</v>
       </c>
       <c r="G125" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H125">
         <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>42127</v>
       </c>
       <c r="B126">
@@ -4129,24 +4154,24 @@
       <c r="C126">
         <v>103.63526192</v>
       </c>
-      <c r="D126" t="s">
-        <v>7</v>
+      <c r="D126">
+        <v>159</v>
       </c>
       <c r="E126" t="s">
-        <v>115</v>
-      </c>
-      <c r="F126">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F126" t="s">
+        <v>110</v>
       </c>
       <c r="G126" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H126">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>42132</v>
       </c>
       <c r="B127">
@@ -4155,24 +4180,24 @@
       <c r="C127">
         <v>103.63577339</v>
       </c>
-      <c r="D127" t="s">
-        <v>7</v>
+      <c r="D127">
+        <v>159</v>
       </c>
       <c r="E127" t="s">
-        <v>115</v>
-      </c>
-      <c r="F127">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>110</v>
       </c>
       <c r="G127" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H127">
         <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>42133</v>
       </c>
       <c r="B128">
@@ -4181,24 +4206,24 @@
       <c r="C128">
         <v>103.63607532</v>
       </c>
-      <c r="D128" t="s">
-        <v>7</v>
+      <c r="D128">
+        <v>159</v>
       </c>
       <c r="E128" t="s">
-        <v>115</v>
-      </c>
-      <c r="F128">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>110</v>
       </c>
       <c r="G128" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H128">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>42134</v>
       </c>
       <c r="B129">
@@ -4207,24 +4232,24 @@
       <c r="C129">
         <v>103.63625279999999</v>
       </c>
-      <c r="D129" t="s">
-        <v>7</v>
+      <c r="D129">
+        <v>159</v>
       </c>
       <c r="E129" t="s">
-        <v>115</v>
-      </c>
-      <c r="F129">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>110</v>
       </c>
       <c r="G129" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H129">
         <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>42190</v>
       </c>
       <c r="B130">
@@ -4233,24 +4258,24 @@
       <c r="C130">
         <v>102.06213217</v>
       </c>
-      <c r="D130" t="s">
-        <v>7</v>
+      <c r="D130">
+        <v>159</v>
       </c>
       <c r="E130" t="s">
-        <v>115</v>
-      </c>
-      <c r="F130">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>110</v>
       </c>
       <c r="G130" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H130">
         <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>42540</v>
       </c>
       <c r="B131">
@@ -4259,17 +4284,17 @@
       <c r="C131">
         <v>102.5353538</v>
       </c>
-      <c r="D131" t="s">
-        <v>7</v>
+      <c r="D131">
+        <v>159</v>
       </c>
       <c r="E131" t="s">
-        <v>115</v>
-      </c>
-      <c r="F131">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>110</v>
       </c>
       <c r="G131" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H131">
         <v>13</v>
@@ -4277,7 +4302,6 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H131">
-    <sortCondition ref="F2:F131"/>
     <sortCondition ref="G2:G131"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
